--- a/MedicalLink/Templates/BC_DoanhThuTheoNhomDichVu_ChiTiet.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoNhomDichVu_ChiTiet.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -144,16 +144,20 @@
   </si>
   <si>
     <t>&amp;=[DATA1].DEPARTMENTGROUPNAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].ISGROUP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -253,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,6 +306,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,9 +331,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -322,7 +341,19 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -604,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A8" sqref="A8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,53 +657,55 @@
     <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="0" style="21" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="Q2" s="22"/>
     </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
@@ -721,8 +754,9 @@
       <c r="P7" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="Q7" s="23"/>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -742,37 +776,38 @@
         <v>6</v>
       </c>
       <c r="G8" s="6">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6">
+        <v>9</v>
+      </c>
+      <c r="J8" s="6">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6">
+        <v>14</v>
+      </c>
+      <c r="O8" s="6">
         <v>15</v>
       </c>
-      <c r="H8" s="6">
+      <c r="P8" s="6">
         <v>16</v>
       </c>
-      <c r="I8" s="6">
-        <v>17</v>
-      </c>
-      <c r="J8" s="6">
-        <v>18</v>
-      </c>
-      <c r="K8" s="6">
-        <v>19</v>
-      </c>
-      <c r="L8" s="6">
-        <v>20</v>
-      </c>
-      <c r="M8" s="6">
-        <v>21</v>
-      </c>
-      <c r="N8" s="6">
-        <v>22</v>
-      </c>
-      <c r="O8" s="6">
-        <v>23</v>
-      </c>
-      <c r="P8" s="6">
-        <v>24</v>
-      </c>
+      <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="I9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="26" t="s">
         <v>35</v>
       </c>
       <c r="K9" s="16" t="s">
@@ -821,12 +856,15 @@
       <c r="P9" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="Q9" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:17" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -839,23 +877,24 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14">
-        <f>SUM(N9:N9)</f>
+        <f>SUM(N9:N9)/2</f>
         <v>0</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="14">
-        <f>SUM(P9:P9)</f>
+        <f>SUM(P9:P9)/2</f>
         <v>0</v>
       </c>
+      <c r="Q10" s="25"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L13" s="23" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="L13:N13"/>
@@ -864,6 +903,11 @@
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>
+  <conditionalFormatting sqref="A9:Q9">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$Q9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_DoanhThuTheoNhomDichVu_ChiTiet.xlsx
+++ b/MedicalLink/Templates/BC_DoanhThuTheoNhomDichVu_ChiTiet.xlsx
@@ -35,9 +35,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].ISGROUP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:P8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -685,7 +685,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -697,7 +697,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
@@ -710,49 +710,49 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="Q7" s="23"/>
     </row>
@@ -809,60 +809,60 @@
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="H9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="14"/>
@@ -889,7 +889,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L13" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
